--- a/data/output/trajetoria_montada.xlsx
+++ b/data/output/trajetoria_montada.xlsx
@@ -3425,6 +3425,9 @@
     <t xml:space="preserve">2020-04-03</t>
   </si>
   <si>
+    <t xml:space="preserve">2020-04-12</t>
+  </si>
+  <si>
     <t xml:space="preserve">2020-05-19</t>
   </si>
   <si>
@@ -3444,9 +3447,6 @@
   </si>
   <si>
     <t xml:space="preserve">2020-05-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-12</t>
   </si>
   <si>
     <t xml:space="preserve">2020-05-23</t>
@@ -12526,32 +12526,32 @@
         <v>128</v>
       </c>
       <c r="B432" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C432" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="D432" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B433" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C433" t="s">
-        <v>225</v>
+        <v>177</v>
       </c>
       <c r="D433" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B434" t="s">
         <v>182</v>
@@ -38157,209 +38157,209 @@
     </row>
     <row r="2263">
       <c r="A2263" t="n">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B2263" t="s">
         <v>1128</v>
       </c>
       <c r="C2263" t="s">
-        <v>1078</v>
+        <v>1137</v>
       </c>
       <c r="D2263" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2264">
       <c r="A2264" t="n">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B2264" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C2264" t="s">
         <v>1079</v>
       </c>
-      <c r="C2264" t="s">
-        <v>1100</v>
-      </c>
       <c r="D2264" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2265">
       <c r="A2265" t="n">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B2265" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C2265" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="D2265" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2266">
       <c r="A2266" t="n">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B2266" t="s">
-        <v>1124</v>
+        <v>1090</v>
       </c>
       <c r="C2266" t="s">
-        <v>1105</v>
+        <v>1090</v>
       </c>
       <c r="D2266" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2267">
       <c r="A2267" t="n">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B2267" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="C2267" t="s">
-        <v>1138</v>
+        <v>1078</v>
       </c>
       <c r="D2267" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2268">
       <c r="A2268" t="n">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B2268" t="s">
-        <v>1139</v>
+        <v>1079</v>
       </c>
       <c r="C2268" t="s">
-        <v>1139</v>
+        <v>1100</v>
       </c>
       <c r="D2268" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2269">
       <c r="A2269" t="n">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B2269" t="s">
-        <v>1125</v>
+        <v>1090</v>
       </c>
       <c r="C2269" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D2269" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2270">
       <c r="A2270" t="n">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B2270" t="s">
-        <v>1089</v>
+        <v>1124</v>
       </c>
       <c r="C2270" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
       <c r="D2270" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2271">
       <c r="A2271" t="n">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B2271" t="s">
-        <v>1096</v>
+        <v>1138</v>
       </c>
       <c r="C2271" t="s">
-        <v>1096</v>
+        <v>1139</v>
       </c>
       <c r="D2271" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2272">
       <c r="A2272" t="n">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B2272" t="s">
         <v>1140</v>
       </c>
       <c r="C2272" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D2272" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2273">
       <c r="A2273" t="n">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B2273" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
       <c r="C2273" t="s">
-        <v>1142</v>
+        <v>1088</v>
       </c>
       <c r="D2273" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2274">
       <c r="A2274" t="n">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B2274" t="s">
-        <v>1109</v>
+        <v>1089</v>
       </c>
       <c r="C2274" t="s">
-        <v>1124</v>
+        <v>1095</v>
       </c>
       <c r="D2274" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2275">
       <c r="A2275" t="n">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B2275" t="s">
-        <v>1125</v>
+        <v>1096</v>
       </c>
       <c r="C2275" t="s">
-        <v>1130</v>
+        <v>1096</v>
       </c>
       <c r="D2275" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2276">
       <c r="A2276" t="n">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B2276" t="s">
-        <v>1078</v>
+        <v>1141</v>
       </c>
       <c r="C2276" t="s">
-        <v>1100</v>
+        <v>1142</v>
       </c>
       <c r="D2276" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2277">
       <c r="A2277" t="n">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B2277" t="s">
-        <v>1090</v>
+        <v>1143</v>
       </c>
       <c r="C2277" t="s">
-        <v>1090</v>
+        <v>1143</v>
       </c>
       <c r="D2277" t="s">
         <v>11</v>
@@ -38367,125 +38367,125 @@
     </row>
     <row r="2278">
       <c r="A2278" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B2278" t="s">
-        <v>1140</v>
+        <v>1109</v>
       </c>
       <c r="C2278" t="s">
-        <v>1095</v>
+        <v>1124</v>
       </c>
       <c r="D2278" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2279">
       <c r="A2279" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B2279" t="s">
-        <v>1096</v>
+        <v>1125</v>
       </c>
       <c r="C2279" t="s">
-        <v>1096</v>
+        <v>1130</v>
       </c>
       <c r="D2279" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2280">
       <c r="A2280" t="n">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B2280" t="s">
-        <v>1130</v>
+        <v>1078</v>
       </c>
       <c r="C2280" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D2280" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2281">
       <c r="A2281" t="n">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B2281" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="C2281" t="s">
-        <v>1119</v>
+        <v>1090</v>
       </c>
       <c r="D2281" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2282">
       <c r="A2282" t="n">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B2282" t="s">
-        <v>1120</v>
+        <v>1141</v>
       </c>
       <c r="C2282" t="s">
-        <v>1120</v>
+        <v>1095</v>
       </c>
       <c r="D2282" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2283">
       <c r="A2283" t="n">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B2283" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="C2283" t="s">
-        <v>1119</v>
+        <v>1096</v>
       </c>
       <c r="D2283" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2284">
       <c r="A2284" t="n">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B2284" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="C2284" t="s">
-        <v>1090</v>
+        <v>1102</v>
       </c>
       <c r="D2284" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2285">
       <c r="A2285" t="n">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B2285" t="s">
-        <v>1091</v>
+        <v>1103</v>
       </c>
       <c r="C2285" t="s">
-        <v>1105</v>
+        <v>1119</v>
       </c>
       <c r="D2285" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2286">
       <c r="A2286" t="n">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B2286" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="C2286" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
       <c r="D2286" t="s">
         <v>11</v>
@@ -38493,13 +38493,13 @@
     </row>
     <row r="2287">
       <c r="A2287" t="n">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B2287" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C2287" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="D2287" t="s">
         <v>21</v>
@@ -38507,13 +38507,13 @@
     </row>
     <row r="2288">
       <c r="A2288" t="n">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B2288" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C2288" t="s">
-        <v>1143</v>
+        <v>1090</v>
       </c>
       <c r="D2288" t="s">
         <v>6</v>
@@ -38521,72 +38521,72 @@
     </row>
     <row r="2289">
       <c r="A2289" t="n">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B2289" t="s">
-        <v>1135</v>
+        <v>1091</v>
       </c>
       <c r="C2289" t="s">
-        <v>1135</v>
+        <v>1105</v>
       </c>
       <c r="D2289" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2290">
       <c r="A2290" t="n">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B2290" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
       <c r="C2290" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="D2290" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2291">
       <c r="A2291" t="n">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B2291" t="s">
-        <v>1130</v>
+        <v>1089</v>
       </c>
       <c r="C2291" t="s">
-        <v>1079</v>
+        <v>1115</v>
       </c>
       <c r="D2291" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2292">
       <c r="A2292" t="n">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B2292" t="s">
-        <v>1088</v>
+        <v>1119</v>
       </c>
       <c r="C2292" t="s">
-        <v>1100</v>
+        <v>1144</v>
       </c>
       <c r="D2292" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2293">
       <c r="A2293" t="n">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B2293" t="s">
-        <v>1103</v>
+        <v>1135</v>
       </c>
       <c r="C2293" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="D2293" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2294">
@@ -38594,13 +38594,13 @@
         <v>736</v>
       </c>
       <c r="B2294" t="s">
-        <v>1090</v>
+        <v>1103</v>
       </c>
       <c r="C2294" t="s">
-        <v>1090</v>
+        <v>1145</v>
       </c>
       <c r="D2294" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2295">
@@ -38765,7 +38765,7 @@
         <v>1119</v>
       </c>
       <c r="C2306" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D2306" t="s">
         <v>21</v>
@@ -38846,10 +38846,10 @@
         <v>741</v>
       </c>
       <c r="B2312" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C2312" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D2312" t="s">
         <v>11</v>
@@ -39140,7 +39140,7 @@
         <v>749</v>
       </c>
       <c r="B2333" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C2333" t="s">
         <v>1162</v>
@@ -39171,7 +39171,7 @@
         <v>1135</v>
       </c>
       <c r="C2335" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D2335" t="s">
         <v>6</v>
@@ -39210,10 +39210,10 @@
         <v>751</v>
       </c>
       <c r="B2338" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C2338" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="D2338" t="s">
         <v>6</v>
@@ -39280,7 +39280,7 @@
         <v>753</v>
       </c>
       <c r="B2343" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C2343" t="s">
         <v>1166</v>
@@ -39336,7 +39336,7 @@
         <v>755</v>
       </c>
       <c r="B2347" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C2347" t="s">
         <v>1167</v>
@@ -39378,7 +39378,7 @@
         <v>756</v>
       </c>
       <c r="B2350" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C2350" t="s">
         <v>1168</v>
@@ -39448,7 +39448,7 @@
         <v>757</v>
       </c>
       <c r="B2355" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C2355" t="s">
         <v>1146</v>
@@ -39476,7 +39476,7 @@
         <v>758</v>
       </c>
       <c r="B2357" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C2357" t="s">
         <v>1168</v>
@@ -42416,7 +42416,7 @@
         <v>827</v>
       </c>
       <c r="B2567" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C2567" t="s">
         <v>1185</v>
